--- a/natmiOut/OldD2/LR-pairs_lrc2p/Il15-Il2ra.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Il15-Il2ra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.20821661142095</v>
+        <v>6.223902</v>
       </c>
       <c r="H2">
-        <v>6.20821661142095</v>
+        <v>12.447804</v>
       </c>
       <c r="I2">
-        <v>0.1647585933783495</v>
+        <v>0.1573600023520094</v>
       </c>
       <c r="J2">
-        <v>0.1647585933783495</v>
+        <v>0.111347698879666</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.123340946863606</v>
+        <v>0.0753475</v>
       </c>
       <c r="N2">
-        <v>0.123340946863606</v>
+        <v>0.150695</v>
       </c>
       <c r="O2">
-        <v>0.09552686694092614</v>
+        <v>0.03832198229806438</v>
       </c>
       <c r="P2">
-        <v>0.09552686694092614</v>
+        <v>0.02965805314694783</v>
       </c>
       <c r="Q2">
-        <v>0.7657273151870274</v>
+        <v>0.468955455945</v>
       </c>
       <c r="R2">
-        <v>0.7657273151870274</v>
+        <v>1.87582182378</v>
       </c>
       <c r="S2">
-        <v>0.01573887222702774</v>
+        <v>0.006030347224557076</v>
       </c>
       <c r="T2">
-        <v>0.01573887222702774</v>
+        <v>0.003302355971163478</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.20821661142095</v>
+        <v>6.223902</v>
       </c>
       <c r="H3">
-        <v>6.20821661142095</v>
+        <v>12.447804</v>
       </c>
       <c r="I3">
-        <v>0.1647585933783495</v>
+        <v>0.1573600023520094</v>
       </c>
       <c r="J3">
-        <v>0.1647585933783495</v>
+        <v>0.111347698879666</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.528555257427798</v>
+        <v>0.169191</v>
       </c>
       <c r="N3">
-        <v>0.528555257427798</v>
+        <v>0.5075730000000001</v>
       </c>
       <c r="O3">
-        <v>0.4093630625607803</v>
+        <v>0.086051090042693</v>
       </c>
       <c r="P3">
-        <v>0.4093630625607803</v>
+        <v>0.09989466810415577</v>
       </c>
       <c r="Q3">
-        <v>3.281385529217132</v>
+        <v>1.053028203282</v>
       </c>
       <c r="R3">
-        <v>3.281385529217132</v>
+        <v>6.318169219692001</v>
       </c>
       <c r="S3">
-        <v>0.06744608236856743</v>
+        <v>0.01354099973151115</v>
       </c>
       <c r="T3">
-        <v>0.06744608236856743</v>
+        <v>0.01112304142374571</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.20821661142095</v>
+        <v>6.223902</v>
       </c>
       <c r="H4">
-        <v>6.20821661142095</v>
+        <v>12.447804</v>
       </c>
       <c r="I4">
-        <v>0.1647585933783495</v>
+        <v>0.1573600023520094</v>
       </c>
       <c r="J4">
-        <v>0.1647585933783495</v>
+        <v>0.111347698879666</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.63926879267097</v>
+        <v>0.03499966666666667</v>
       </c>
       <c r="N4">
-        <v>0.63926879267097</v>
+        <v>0.104999</v>
       </c>
       <c r="O4">
-        <v>0.4951100704982936</v>
+        <v>0.01780094371330375</v>
       </c>
       <c r="P4">
-        <v>0.4951100704982936</v>
+        <v>0.02066469307127891</v>
       </c>
       <c r="Q4">
-        <v>3.968719137822931</v>
+        <v>0.217834495366</v>
       </c>
       <c r="R4">
-        <v>3.968719137822931</v>
+        <v>1.307006972196</v>
       </c>
       <c r="S4">
-        <v>0.0815736387827543</v>
+        <v>0.002801156544593465</v>
       </c>
       <c r="T4">
-        <v>0.0815736387827543</v>
+        <v>0.002300966021541485</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.73469548922268</v>
+        <v>6.223902</v>
       </c>
       <c r="H5">
-        <v>0.73469548922268</v>
+        <v>12.447804</v>
       </c>
       <c r="I5">
-        <v>0.01949793361640478</v>
+        <v>0.1573600023520094</v>
       </c>
       <c r="J5">
-        <v>0.01949793361640478</v>
+        <v>0.111347698879666</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.123340946863606</v>
+        <v>0.6000156666666667</v>
       </c>
       <c r="N5">
-        <v>0.123340946863606</v>
+        <v>1.800047</v>
       </c>
       <c r="O5">
-        <v>0.09552686694092614</v>
+        <v>0.3051699095067693</v>
       </c>
       <c r="P5">
-        <v>0.09552686694092614</v>
+        <v>0.3542645050798235</v>
       </c>
       <c r="Q5">
-        <v>0.09061803729714558</v>
+        <v>3.734438707798</v>
       </c>
       <c r="R5">
-        <v>0.09061803729714558</v>
+        <v>22.406632246788</v>
       </c>
       <c r="S5">
-        <v>0.00186257651019731</v>
+        <v>0.04802153767774773</v>
       </c>
       <c r="T5">
-        <v>0.00186257651019731</v>
+        <v>0.0394465374353821</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.73469548922268</v>
+        <v>6.223902</v>
       </c>
       <c r="H6">
-        <v>0.73469548922268</v>
+        <v>12.447804</v>
       </c>
       <c r="I6">
-        <v>0.01949793361640478</v>
+        <v>0.1573600023520094</v>
       </c>
       <c r="J6">
-        <v>0.01949793361640478</v>
+        <v>0.111347698879666</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.528555257427798</v>
+        <v>0.3445373333333333</v>
       </c>
       <c r="N6">
-        <v>0.528555257427798</v>
+        <v>1.033612</v>
       </c>
       <c r="O6">
-        <v>0.4093630625607803</v>
+        <v>0.1752328025352176</v>
       </c>
       <c r="P6">
-        <v>0.4093630625607803</v>
+        <v>0.2034236015084976</v>
       </c>
       <c r="Q6">
-        <v>0.3883271634371356</v>
+        <v>2.144366598008</v>
       </c>
       <c r="R6">
-        <v>0.3883271634371356</v>
+        <v>12.866199588048</v>
       </c>
       <c r="S6">
-        <v>0.007981733818818249</v>
+        <v>0.02757463421909105</v>
       </c>
       <c r="T6">
-        <v>0.007981733818818249</v>
+        <v>0.02265074992578536</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,57 +847,57 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.73469548922268</v>
+        <v>6.223902</v>
       </c>
       <c r="H7">
-        <v>0.73469548922268</v>
+        <v>12.447804</v>
       </c>
       <c r="I7">
-        <v>0.01949793361640478</v>
+        <v>0.1573600023520094</v>
       </c>
       <c r="J7">
-        <v>0.01949793361640478</v>
+        <v>0.111347698879666</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.63926879267097</v>
+        <v>0.742078</v>
       </c>
       <c r="N7">
-        <v>0.63926879267097</v>
+        <v>1.484156</v>
       </c>
       <c r="O7">
-        <v>0.4951100704982936</v>
+        <v>0.377423271903952</v>
       </c>
       <c r="P7">
-        <v>0.4951100704982936</v>
+        <v>0.2920944790892963</v>
       </c>
       <c r="Q7">
-        <v>0.4696678983761903</v>
+        <v>4.618620748356</v>
       </c>
       <c r="R7">
-        <v>0.4696678983761903</v>
+        <v>18.474482993424</v>
       </c>
       <c r="S7">
-        <v>0.009653623287389217</v>
+        <v>0.05939132695450899</v>
       </c>
       <c r="T7">
-        <v>0.009653623287389217</v>
+        <v>0.03252404810204786</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.596809883191639</v>
+        <v>0.8282930000000001</v>
       </c>
       <c r="H8">
-        <v>9.596809883191639</v>
+        <v>2.484879</v>
       </c>
       <c r="I8">
-        <v>0.254687778510389</v>
+        <v>0.02094187672430462</v>
       </c>
       <c r="J8">
-        <v>0.254687778510389</v>
+        <v>0.02222766028806411</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.123340946863606</v>
+        <v>0.0753475</v>
       </c>
       <c r="N8">
-        <v>0.123340946863606</v>
+        <v>0.150695</v>
       </c>
       <c r="O8">
-        <v>0.09552686694092614</v>
+        <v>0.03832198229806438</v>
       </c>
       <c r="P8">
-        <v>0.09552686694092614</v>
+        <v>0.02965805314694783</v>
       </c>
       <c r="Q8">
-        <v>1.183679617862869</v>
+        <v>0.0624098068175</v>
       </c>
       <c r="R8">
-        <v>1.183679617862869</v>
+        <v>0.374458840905</v>
       </c>
       <c r="S8">
-        <v>0.024329525529242</v>
+        <v>0.0008025342291170482</v>
       </c>
       <c r="T8">
-        <v>0.024329525529242</v>
+        <v>0.0006592291301557072</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,184 +968,184 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.596809883191639</v>
+        <v>0.8282930000000001</v>
       </c>
       <c r="H9">
-        <v>9.596809883191639</v>
+        <v>2.484879</v>
       </c>
       <c r="I9">
-        <v>0.254687778510389</v>
+        <v>0.02094187672430462</v>
       </c>
       <c r="J9">
-        <v>0.254687778510389</v>
+        <v>0.02222766028806411</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.528555257427798</v>
+        <v>0.169191</v>
       </c>
       <c r="N9">
-        <v>0.528555257427798</v>
+        <v>0.5075730000000001</v>
       </c>
       <c r="O9">
-        <v>0.4093630625607803</v>
+        <v>0.086051090042693</v>
       </c>
       <c r="P9">
-        <v>0.4093630625607803</v>
+        <v>0.09989466810415577</v>
       </c>
       <c r="Q9">
-        <v>5.072444318295992</v>
+        <v>0.140139720963</v>
       </c>
       <c r="R9">
-        <v>5.072444318295992</v>
+        <v>1.261257488667</v>
       </c>
       <c r="S9">
-        <v>0.1042597690078145</v>
+        <v>0.001802071319666114</v>
       </c>
       <c r="T9">
-        <v>0.1042597690078145</v>
+        <v>0.002220424747208088</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.596809883191639</v>
+        <v>0.8282930000000001</v>
       </c>
       <c r="H10">
-        <v>9.596809883191639</v>
+        <v>2.484879</v>
       </c>
       <c r="I10">
-        <v>0.254687778510389</v>
+        <v>0.02094187672430462</v>
       </c>
       <c r="J10">
-        <v>0.254687778510389</v>
+        <v>0.02222766028806411</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.63926879267097</v>
+        <v>0.03499966666666667</v>
       </c>
       <c r="N10">
-        <v>0.63926879267097</v>
+        <v>0.104999</v>
       </c>
       <c r="O10">
-        <v>0.4951100704982936</v>
+        <v>0.01780094371330375</v>
       </c>
       <c r="P10">
-        <v>0.4951100704982936</v>
+        <v>0.02066469307127891</v>
       </c>
       <c r="Q10">
-        <v>6.134941067520752</v>
+        <v>0.02898997890233333</v>
       </c>
       <c r="R10">
-        <v>6.134941067520752</v>
+        <v>0.260909810121</v>
       </c>
       <c r="S10">
-        <v>0.1260984839733325</v>
+        <v>0.0003727851688202924</v>
       </c>
       <c r="T10">
-        <v>0.1260984839733325</v>
+        <v>0.0004593277775454998</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>16.1353745103769</v>
+        <v>0.8282930000000001</v>
       </c>
       <c r="H11">
-        <v>16.1353745103769</v>
+        <v>2.484879</v>
       </c>
       <c r="I11">
-        <v>0.428213410445758</v>
+        <v>0.02094187672430462</v>
       </c>
       <c r="J11">
-        <v>0.428213410445758</v>
+        <v>0.02222766028806411</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.123340946863606</v>
+        <v>0.6000156666666667</v>
       </c>
       <c r="N11">
-        <v>0.123340946863606</v>
+        <v>1.800047</v>
       </c>
       <c r="O11">
-        <v>0.09552686694092614</v>
+        <v>0.3051699095067693</v>
       </c>
       <c r="P11">
-        <v>0.09552686694092614</v>
+        <v>0.3542645050798235</v>
       </c>
       <c r="Q11">
-        <v>1.99015237010878</v>
+        <v>0.4969887765903334</v>
       </c>
       <c r="R11">
-        <v>1.99015237010878</v>
+        <v>4.472898989313001</v>
       </c>
       <c r="S11">
-        <v>0.04090588548197212</v>
+        <v>0.00639083062485796</v>
       </c>
       <c r="T11">
-        <v>0.04090588548197212</v>
+        <v>0.00787447107103348</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>16.1353745103769</v>
+        <v>0.8282930000000001</v>
       </c>
       <c r="H12">
-        <v>16.1353745103769</v>
+        <v>2.484879</v>
       </c>
       <c r="I12">
-        <v>0.428213410445758</v>
+        <v>0.02094187672430462</v>
       </c>
       <c r="J12">
-        <v>0.428213410445758</v>
+        <v>0.02222766028806411</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.528555257427798</v>
+        <v>0.3445373333333333</v>
       </c>
       <c r="N12">
-        <v>0.528555257427798</v>
+        <v>1.033612</v>
       </c>
       <c r="O12">
-        <v>0.4093630625607803</v>
+        <v>0.1752328025352176</v>
       </c>
       <c r="P12">
-        <v>0.4093630625607803</v>
+        <v>0.2034236015084976</v>
       </c>
       <c r="Q12">
-        <v>8.528437028026191</v>
+        <v>0.2853778614386667</v>
       </c>
       <c r="R12">
-        <v>8.528437028026191</v>
+        <v>2.568400752948</v>
       </c>
       <c r="S12">
-        <v>0.1752947531296719</v>
+        <v>0.003669703748746941</v>
       </c>
       <c r="T12">
-        <v>0.1752947531296719</v>
+        <v>0.004521630708905411</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>16.1353745103769</v>
+        <v>0.8282930000000001</v>
       </c>
       <c r="H13">
-        <v>16.1353745103769</v>
+        <v>2.484879</v>
       </c>
       <c r="I13">
-        <v>0.428213410445758</v>
+        <v>0.02094187672430462</v>
       </c>
       <c r="J13">
-        <v>0.428213410445758</v>
+        <v>0.02222766028806411</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.63926879267097</v>
+        <v>0.742078</v>
       </c>
       <c r="N13">
-        <v>0.63926879267097</v>
+        <v>1.484156</v>
       </c>
       <c r="O13">
-        <v>0.4951100704982936</v>
+        <v>0.377423271903952</v>
       </c>
       <c r="P13">
-        <v>0.4951100704982936</v>
+        <v>0.2920944790892963</v>
       </c>
       <c r="Q13">
-        <v>10.31484138254258</v>
+        <v>0.614658012854</v>
       </c>
       <c r="R13">
-        <v>10.31484138254258</v>
+        <v>3.687948077124001</v>
       </c>
       <c r="S13">
-        <v>0.212012771834114</v>
+        <v>0.007903951633096266</v>
       </c>
       <c r="T13">
-        <v>0.212012771834114</v>
+        <v>0.006492576853215924</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.48115254148327</v>
+        <v>10.755645</v>
       </c>
       <c r="H14">
-        <v>4.48115254148327</v>
+        <v>32.266935</v>
       </c>
       <c r="I14">
-        <v>0.1189243925687725</v>
+        <v>0.2719368528774038</v>
       </c>
       <c r="J14">
-        <v>0.1189243925687725</v>
+        <v>0.288633156671631</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M14">
-        <v>0.123340946863606</v>
+        <v>0.0753475</v>
       </c>
       <c r="N14">
-        <v>0.123340946863606</v>
+        <v>0.150695</v>
       </c>
       <c r="O14">
-        <v>0.09552686694092614</v>
+        <v>0.03832198229806438</v>
       </c>
       <c r="P14">
-        <v>0.09552686694092614</v>
+        <v>0.02965805314694783</v>
       </c>
       <c r="Q14">
-        <v>0.5527095975068009</v>
+        <v>0.8104109616375</v>
       </c>
       <c r="R14">
-        <v>0.5527095975068009</v>
+        <v>4.862465769825</v>
       </c>
       <c r="S14">
-        <v>0.01136047462494759</v>
+        <v>0.01042115926215921</v>
       </c>
       <c r="T14">
-        <v>0.01136047462494759</v>
+        <v>0.008560297500538553</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.48115254148327</v>
+        <v>10.755645</v>
       </c>
       <c r="H15">
-        <v>4.48115254148327</v>
+        <v>32.266935</v>
       </c>
       <c r="I15">
-        <v>0.1189243925687725</v>
+        <v>0.2719368528774038</v>
       </c>
       <c r="J15">
-        <v>0.1189243925687725</v>
+        <v>0.288633156671631</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.528555257427798</v>
+        <v>0.169191</v>
       </c>
       <c r="N15">
-        <v>0.528555257427798</v>
+        <v>0.5075730000000001</v>
       </c>
       <c r="O15">
-        <v>0.4093630625607803</v>
+        <v>0.086051090042693</v>
       </c>
       <c r="P15">
-        <v>0.4093630625607803</v>
+        <v>0.09989466810415577</v>
       </c>
       <c r="Q15">
-        <v>2.368536735136921</v>
+        <v>1.819758333195</v>
       </c>
       <c r="R15">
-        <v>2.368536735136921</v>
+        <v>16.377824998755</v>
       </c>
       <c r="S15">
-        <v>0.04868325355513319</v>
+        <v>0.02340046261288003</v>
       </c>
       <c r="T15">
-        <v>0.04868325355513319</v>
+        <v>0.02883291338956738</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,60 +1402,60 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.48115254148327</v>
+        <v>10.755645</v>
       </c>
       <c r="H16">
-        <v>4.48115254148327</v>
+        <v>32.266935</v>
       </c>
       <c r="I16">
-        <v>0.1189243925687725</v>
+        <v>0.2719368528774038</v>
       </c>
       <c r="J16">
-        <v>0.1189243925687725</v>
+        <v>0.288633156671631</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.63926879267097</v>
+        <v>0.03499966666666667</v>
       </c>
       <c r="N16">
-        <v>0.63926879267097</v>
+        <v>0.104999</v>
       </c>
       <c r="O16">
-        <v>0.4951100704982936</v>
+        <v>0.01780094371330375</v>
       </c>
       <c r="P16">
-        <v>0.4951100704982936</v>
+        <v>0.02066469307127891</v>
       </c>
       <c r="Q16">
-        <v>2.864660974968459</v>
+        <v>0.376443989785</v>
       </c>
       <c r="R16">
-        <v>2.864660974968459</v>
+        <v>3.387995908065</v>
       </c>
       <c r="S16">
-        <v>0.05888066438869168</v>
+        <v>0.004840732611643626</v>
       </c>
       <c r="T16">
-        <v>0.05888066438869168</v>
+        <v>0.005964515592813614</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.524435680788407</v>
+        <v>10.755645</v>
       </c>
       <c r="H17">
-        <v>0.524435680788407</v>
+        <v>32.266935</v>
       </c>
       <c r="I17">
-        <v>0.01391789148032617</v>
+        <v>0.2719368528774038</v>
       </c>
       <c r="J17">
-        <v>0.01391789148032617</v>
+        <v>0.288633156671631</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.123340946863606</v>
+        <v>0.6000156666666667</v>
       </c>
       <c r="N17">
-        <v>0.123340946863606</v>
+        <v>1.800047</v>
       </c>
       <c r="O17">
-        <v>0.09552686694092614</v>
+        <v>0.3051699095067693</v>
       </c>
       <c r="P17">
-        <v>0.09552686694092614</v>
+        <v>0.3542645050798235</v>
       </c>
       <c r="Q17">
-        <v>0.06468439343750194</v>
+        <v>6.453555505105001</v>
       </c>
       <c r="R17">
-        <v>0.06468439343750194</v>
+        <v>58.08199954594501</v>
       </c>
       <c r="S17">
-        <v>0.001329532567539368</v>
+        <v>0.08298694478415294</v>
       </c>
       <c r="T17">
-        <v>0.001329532567539368</v>
+        <v>0.1022524823979025</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.524435680788407</v>
+        <v>10.755645</v>
       </c>
       <c r="H18">
-        <v>0.524435680788407</v>
+        <v>32.266935</v>
       </c>
       <c r="I18">
-        <v>0.01391789148032617</v>
+        <v>0.2719368528774038</v>
       </c>
       <c r="J18">
-        <v>0.01391789148032617</v>
+        <v>0.288633156671631</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.528555257427798</v>
+        <v>0.3445373333333333</v>
       </c>
       <c r="N18">
-        <v>0.528555257427798</v>
+        <v>1.033612</v>
       </c>
       <c r="O18">
-        <v>0.4093630625607803</v>
+        <v>0.1752328025352176</v>
       </c>
       <c r="P18">
-        <v>0.4093630625607803</v>
+        <v>0.2034236015084976</v>
       </c>
       <c r="Q18">
-        <v>0.2771932362634389</v>
+        <v>3.70572124658</v>
       </c>
       <c r="R18">
-        <v>0.2771932362634389</v>
+        <v>33.35149121922</v>
       </c>
       <c r="S18">
-        <v>0.005697470680774912</v>
+        <v>0.04765225684231461</v>
       </c>
       <c r="T18">
-        <v>0.005697470680774912</v>
+        <v>0.05871479624490962</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1591,52 +1591,1168 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.524435680788407</v>
+        <v>10.755645</v>
       </c>
       <c r="H19">
-        <v>0.524435680788407</v>
+        <v>32.266935</v>
       </c>
       <c r="I19">
-        <v>0.01391789148032617</v>
+        <v>0.2719368528774038</v>
       </c>
       <c r="J19">
-        <v>0.01391789148032617</v>
+        <v>0.288633156671631</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.63926879267097</v>
+        <v>0.742078</v>
       </c>
       <c r="N19">
-        <v>0.63926879267097</v>
+        <v>1.484156</v>
       </c>
       <c r="O19">
-        <v>0.4951100704982936</v>
+        <v>0.377423271903952</v>
       </c>
       <c r="P19">
-        <v>0.4951100704982936</v>
+        <v>0.2920944790892963</v>
       </c>
       <c r="Q19">
-        <v>0.3352553644911831</v>
+        <v>7.981527530310001</v>
       </c>
       <c r="R19">
-        <v>0.3352553644911831</v>
+        <v>47.88916518186001</v>
       </c>
       <c r="S19">
-        <v>0.006890888232011888</v>
+        <v>0.1026352967642533</v>
       </c>
       <c r="T19">
-        <v>0.006890888232011888</v>
+        <v>0.08430815154589931</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>16.464098</v>
+      </c>
+      <c r="H20">
+        <v>49.392294</v>
+      </c>
+      <c r="I20">
+        <v>0.4162646680496759</v>
+      </c>
+      <c r="J20">
+        <v>0.4418223711819316</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.5</v>
+      </c>
+      <c r="M20">
+        <v>0.0753475</v>
+      </c>
+      <c r="N20">
+        <v>0.150695</v>
+      </c>
+      <c r="O20">
+        <v>0.03832198229806438</v>
+      </c>
+      <c r="P20">
+        <v>0.02965805314694783</v>
+      </c>
+      <c r="Q20">
+        <v>1.240528624055</v>
+      </c>
+      <c r="R20">
+        <v>7.44317174433</v>
+      </c>
+      <c r="S20">
+        <v>0.01595208724030933</v>
+      </c>
+      <c r="T20">
+        <v>0.01310359136602424</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>16.464098</v>
+      </c>
+      <c r="H21">
+        <v>49.392294</v>
+      </c>
+      <c r="I21">
+        <v>0.4162646680496759</v>
+      </c>
+      <c r="J21">
+        <v>0.4418223711819316</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.169191</v>
+      </c>
+      <c r="N21">
+        <v>0.5075730000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.086051090042693</v>
+      </c>
+      <c r="P21">
+        <v>0.09989466810415577</v>
+      </c>
+      <c r="Q21">
+        <v>2.785577204718</v>
+      </c>
+      <c r="R21">
+        <v>25.070194842462</v>
+      </c>
+      <c r="S21">
+        <v>0.03582002843193437</v>
+      </c>
+      <c r="T21">
+        <v>0.04413569913021018</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>16.464098</v>
+      </c>
+      <c r="H22">
+        <v>49.392294</v>
+      </c>
+      <c r="I22">
+        <v>0.4162646680496759</v>
+      </c>
+      <c r="J22">
+        <v>0.4418223711819316</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.03499966666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.104999</v>
+      </c>
+      <c r="O22">
+        <v>0.01780094371330375</v>
+      </c>
+      <c r="P22">
+        <v>0.02066469307127891</v>
+      </c>
+      <c r="Q22">
+        <v>0.5762379419673334</v>
+      </c>
+      <c r="R22">
+        <v>5.186141477705999</v>
+      </c>
+      <c r="S22">
+        <v>0.007409903925789349</v>
+      </c>
+      <c r="T22">
+        <v>0.009130123692499282</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>16.464098</v>
+      </c>
+      <c r="H23">
+        <v>49.392294</v>
+      </c>
+      <c r="I23">
+        <v>0.4162646680496759</v>
+      </c>
+      <c r="J23">
+        <v>0.4418223711819316</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.6000156666666667</v>
+      </c>
+      <c r="N23">
+        <v>1.800047</v>
+      </c>
+      <c r="O23">
+        <v>0.3051699095067693</v>
+      </c>
+      <c r="P23">
+        <v>0.3542645050798235</v>
+      </c>
+      <c r="Q23">
+        <v>9.878716737535335</v>
+      </c>
+      <c r="R23">
+        <v>88.90845063781801</v>
+      </c>
+      <c r="S23">
+        <v>0.127031451079585</v>
+      </c>
+      <c r="T23">
+        <v>0.1565219836599611</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>16.464098</v>
+      </c>
+      <c r="H24">
+        <v>49.392294</v>
+      </c>
+      <c r="I24">
+        <v>0.4162646680496759</v>
+      </c>
+      <c r="J24">
+        <v>0.4418223711819316</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.3445373333333333</v>
+      </c>
+      <c r="N24">
+        <v>1.033612</v>
+      </c>
+      <c r="O24">
+        <v>0.1752328025352176</v>
+      </c>
+      <c r="P24">
+        <v>0.2034236015084976</v>
+      </c>
+      <c r="Q24">
+        <v>5.672496420658666</v>
+      </c>
+      <c r="R24">
+        <v>51.052467785928</v>
+      </c>
+      <c r="S24">
+        <v>0.07294322437873677</v>
+      </c>
+      <c r="T24">
+        <v>0.08987709797285277</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>16.464098</v>
+      </c>
+      <c r="H25">
+        <v>49.392294</v>
+      </c>
+      <c r="I25">
+        <v>0.4162646680496759</v>
+      </c>
+      <c r="J25">
+        <v>0.4418223711819316</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.742078</v>
+      </c>
+      <c r="N25">
+        <v>1.484156</v>
+      </c>
+      <c r="O25">
+        <v>0.377423271903952</v>
+      </c>
+      <c r="P25">
+        <v>0.2920944790892963</v>
+      </c>
+      <c r="Q25">
+        <v>12.217644915644</v>
+      </c>
+      <c r="R25">
+        <v>73.30586949386399</v>
+      </c>
+      <c r="S25">
+        <v>0.1571079729933212</v>
+      </c>
+      <c r="T25">
+        <v>0.129053875360384</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>4.640172333333333</v>
+      </c>
+      <c r="H26">
+        <v>13.920517</v>
+      </c>
+      <c r="I26">
+        <v>0.1173182883160857</v>
+      </c>
+      <c r="J26">
+        <v>0.1245213641832143</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>0.0753475</v>
+      </c>
+      <c r="N26">
+        <v>0.150695</v>
+      </c>
+      <c r="O26">
+        <v>0.03832198229806438</v>
+      </c>
+      <c r="P26">
+        <v>0.02965805314694783</v>
+      </c>
+      <c r="Q26">
+        <v>0.3496253848858333</v>
+      </c>
+      <c r="R26">
+        <v>2.097752309315</v>
+      </c>
+      <c r="S26">
+        <v>0.00449586936808825</v>
+      </c>
+      <c r="T26">
+        <v>0.003693061236876215</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>4.640172333333333</v>
+      </c>
+      <c r="H27">
+        <v>13.920517</v>
+      </c>
+      <c r="I27">
+        <v>0.1173182883160857</v>
+      </c>
+      <c r="J27">
+        <v>0.1245213641832143</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.169191</v>
+      </c>
+      <c r="N27">
+        <v>0.5075730000000001</v>
+      </c>
+      <c r="O27">
+        <v>0.086051090042693</v>
+      </c>
+      <c r="P27">
+        <v>0.09989466810415577</v>
+      </c>
+      <c r="Q27">
+        <v>0.785075397249</v>
+      </c>
+      <c r="R27">
+        <v>7.065678575241001</v>
+      </c>
+      <c r="S27">
+        <v>0.01009536659154211</v>
+      </c>
+      <c r="T27">
+        <v>0.0124390203469589</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>4.640172333333333</v>
+      </c>
+      <c r="H28">
+        <v>13.920517</v>
+      </c>
+      <c r="I28">
+        <v>0.1173182883160857</v>
+      </c>
+      <c r="J28">
+        <v>0.1245213641832143</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.03499966666666667</v>
+      </c>
+      <c r="N28">
+        <v>0.104999</v>
+      </c>
+      <c r="O28">
+        <v>0.01780094371330375</v>
+      </c>
+      <c r="P28">
+        <v>0.02066469307127891</v>
+      </c>
+      <c r="Q28">
+        <v>0.1624044849425555</v>
+      </c>
+      <c r="R28">
+        <v>1.461640364483</v>
+      </c>
+      <c r="S28">
+        <v>0.002088376246855782</v>
+      </c>
+      <c r="T28">
+        <v>0.002573195771663066</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>4.640172333333333</v>
+      </c>
+      <c r="H29">
+        <v>13.920517</v>
+      </c>
+      <c r="I29">
+        <v>0.1173182883160857</v>
+      </c>
+      <c r="J29">
+        <v>0.1245213641832143</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.6000156666666667</v>
+      </c>
+      <c r="N29">
+        <v>1.800047</v>
+      </c>
+      <c r="O29">
+        <v>0.3051699095067693</v>
+      </c>
+      <c r="P29">
+        <v>0.3542645050798235</v>
+      </c>
+      <c r="Q29">
+        <v>2.784176096033222</v>
+      </c>
+      <c r="R29">
+        <v>25.057584864299</v>
+      </c>
+      <c r="S29">
+        <v>0.03580201142890894</v>
+      </c>
+      <c r="T29">
+        <v>0.04411349945423087</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>4.640172333333333</v>
+      </c>
+      <c r="H30">
+        <v>13.920517</v>
+      </c>
+      <c r="I30">
+        <v>0.1173182883160857</v>
+      </c>
+      <c r="J30">
+        <v>0.1245213641832143</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M30">
+        <v>0.3445373333333333</v>
+      </c>
+      <c r="N30">
+        <v>1.033612</v>
+      </c>
+      <c r="O30">
+        <v>0.1752328025352176</v>
+      </c>
+      <c r="P30">
+        <v>0.2034236015084976</v>
+      </c>
+      <c r="Q30">
+        <v>1.598712601933778</v>
+      </c>
+      <c r="R30">
+        <v>14.388413417404</v>
+      </c>
+      <c r="S30">
+        <v>0.02055801245026237</v>
+      </c>
+      <c r="T30">
+        <v>0.02533058436690068</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>4.640172333333333</v>
+      </c>
+      <c r="H31">
+        <v>13.920517</v>
+      </c>
+      <c r="I31">
+        <v>0.1173182883160857</v>
+      </c>
+      <c r="J31">
+        <v>0.1245213641832143</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.742078</v>
+      </c>
+      <c r="N31">
+        <v>1.484156</v>
+      </c>
+      <c r="O31">
+        <v>0.377423271903952</v>
+      </c>
+      <c r="P31">
+        <v>0.2920944790892963</v>
+      </c>
+      <c r="Q31">
+        <v>3.443369804775333</v>
+      </c>
+      <c r="R31">
+        <v>20.660218828652</v>
+      </c>
+      <c r="S31">
+        <v>0.04427865223042825</v>
+      </c>
+      <c r="T31">
+        <v>0.03637200300658453</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.6398845000000001</v>
+      </c>
+      <c r="H32">
+        <v>1.279769</v>
+      </c>
+      <c r="I32">
+        <v>0.01617831168052042</v>
+      </c>
+      <c r="J32">
+        <v>0.01144774879549287</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0.5</v>
+      </c>
+      <c r="M32">
+        <v>0.0753475</v>
+      </c>
+      <c r="N32">
+        <v>0.150695</v>
+      </c>
+      <c r="O32">
+        <v>0.03832198229806438</v>
+      </c>
+      <c r="P32">
+        <v>0.02965805314694783</v>
+      </c>
+      <c r="Q32">
+        <v>0.04821369736375</v>
+      </c>
+      <c r="R32">
+        <v>0.192854789455</v>
+      </c>
+      <c r="S32">
+        <v>0.0006199849738334718</v>
+      </c>
+      <c r="T32">
+        <v>0.0003395179421896355</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.6398845000000001</v>
+      </c>
+      <c r="H33">
+        <v>1.279769</v>
+      </c>
+      <c r="I33">
+        <v>0.01617831168052042</v>
+      </c>
+      <c r="J33">
+        <v>0.01144774879549287</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.169191</v>
+      </c>
+      <c r="N33">
+        <v>0.5075730000000001</v>
+      </c>
+      <c r="O33">
+        <v>0.086051090042693</v>
+      </c>
+      <c r="P33">
+        <v>0.09989466810415577</v>
+      </c>
+      <c r="Q33">
+        <v>0.1082626984395</v>
+      </c>
+      <c r="R33">
+        <v>0.6495761906370001</v>
+      </c>
+      <c r="S33">
+        <v>0.001392161355159215</v>
+      </c>
+      <c r="T33">
+        <v>0.001143569066465509</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.6398845000000001</v>
+      </c>
+      <c r="H34">
+        <v>1.279769</v>
+      </c>
+      <c r="I34">
+        <v>0.01617831168052042</v>
+      </c>
+      <c r="J34">
+        <v>0.01144774879549287</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M34">
+        <v>0.03499966666666667</v>
+      </c>
+      <c r="N34">
+        <v>0.104999</v>
+      </c>
+      <c r="O34">
+        <v>0.01780094371330375</v>
+      </c>
+      <c r="P34">
+        <v>0.02066469307127891</v>
+      </c>
+      <c r="Q34">
+        <v>0.02239574420516667</v>
+      </c>
+      <c r="R34">
+        <v>0.134374465231</v>
+      </c>
+      <c r="S34">
+        <v>0.0002879892156012285</v>
+      </c>
+      <c r="T34">
+        <v>0.000236564215215963</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.6398845000000001</v>
+      </c>
+      <c r="H35">
+        <v>1.279769</v>
+      </c>
+      <c r="I35">
+        <v>0.01617831168052042</v>
+      </c>
+      <c r="J35">
+        <v>0.01144774879549287</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.6000156666666667</v>
+      </c>
+      <c r="N35">
+        <v>1.800047</v>
+      </c>
+      <c r="O35">
+        <v>0.3051699095067693</v>
+      </c>
+      <c r="P35">
+        <v>0.3542645050798235</v>
+      </c>
+      <c r="Q35">
+        <v>0.3839407248571667</v>
+      </c>
+      <c r="R35">
+        <v>2.303644349143001</v>
+      </c>
+      <c r="S35">
+        <v>0.004937133911516726</v>
+      </c>
+      <c r="T35">
+        <v>0.004055531061313427</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.6398845000000001</v>
+      </c>
+      <c r="H36">
+        <v>1.279769</v>
+      </c>
+      <c r="I36">
+        <v>0.01617831168052042</v>
+      </c>
+      <c r="J36">
+        <v>0.01144774879549287</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M36">
+        <v>0.3445373333333333</v>
+      </c>
+      <c r="N36">
+        <v>1.033612</v>
+      </c>
+      <c r="O36">
+        <v>0.1752328025352176</v>
+      </c>
+      <c r="P36">
+        <v>0.2034236015084976</v>
+      </c>
+      <c r="Q36">
+        <v>0.2204640992713333</v>
+      </c>
+      <c r="R36">
+        <v>1.322784595628</v>
+      </c>
+      <c r="S36">
+        <v>0.002834970896065839</v>
+      </c>
+      <c r="T36">
+        <v>0.002328742289143724</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.6398845000000001</v>
+      </c>
+      <c r="H37">
+        <v>1.279769</v>
+      </c>
+      <c r="I37">
+        <v>0.01617831168052042</v>
+      </c>
+      <c r="J37">
+        <v>0.01144774879549287</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.742078</v>
+      </c>
+      <c r="N37">
+        <v>1.484156</v>
+      </c>
+      <c r="O37">
+        <v>0.377423271903952</v>
+      </c>
+      <c r="P37">
+        <v>0.2920944790892963</v>
+      </c>
+      <c r="Q37">
+        <v>0.4748442099910001</v>
+      </c>
+      <c r="R37">
+        <v>1.899376839964</v>
+      </c>
+      <c r="S37">
+        <v>0.006106071328343942</v>
+      </c>
+      <c r="T37">
+        <v>0.003343824221164608</v>
       </c>
     </row>
   </sheetData>
